--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Infinite Number Line 3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Infinite Number Line 3.xlsx_with_dialog_acts.xlsx
@@ -931,12 +931,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2299,12 +2299,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3135,12 +3135,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4157,12 +4157,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5145,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5297,12 +5297,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5335,12 +5335,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5525,12 +5525,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5563,12 +5563,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5601,12 +5601,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5791,12 +5791,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6057,12 +6057,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6171,12 +6171,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6247,12 +6247,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6897,12 +6897,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6935,12 +6935,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7049,12 +7049,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7427,12 +7427,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7805,12 +7805,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8147,12 +8147,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8223,12 +8223,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8641,12 +8641,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9133,12 +9133,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9323,12 +9323,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9437,12 +9437,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9589,12 +9589,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
